--- a/data/监测分析数据库.xlsx
+++ b/data/监测分析数据库.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\同步文件夹\HTFA\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIU\Desktop\HTFA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717A0A16-1655-4FFC-9A73-3B28A5A26DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73A8609-212C-4601-B6D0-6D1D26D1A6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5535" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总体工业增加值同比增速" sheetId="23" r:id="rId1"/>
@@ -18,9 +18,8 @@
     <sheet name="工业企业利润" sheetId="18" r:id="rId3"/>
     <sheet name="分行业工业企业利润" sheetId="19" r:id="rId4"/>
     <sheet name="工业企业经营" sheetId="25" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="26" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -475,18 +474,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -501,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -514,12 +507,13 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -824,13 +818,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE926B10-A41B-444C-A9DD-E1C69EA175B3}">
   <dimension ref="A1:PM430"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.5859375" customWidth="1"/>
+    <col min="1" max="1" width="15.578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:429" x14ac:dyDescent="0.4">
@@ -10273,13 +10267,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7A8054-E948-4205-BC63-B3B1F0CD7444}">
   <dimension ref="A1:IA237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="H243" sqref="H243"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.29296875" customWidth="1"/>
+    <col min="1" max="1" width="24.3125" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:235" x14ac:dyDescent="0.4">
@@ -48741,10 +48736,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="18.64453125" customWidth="1"/>
-    <col min="4" max="4" width="14.8203125" customWidth="1"/>
+    <col min="1" max="3" width="18.62890625" customWidth="1"/>
+    <col min="4" max="4" width="14.83984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
@@ -53091,9 +53086,9 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="41" width="18.64453125" customWidth="1"/>
+    <col min="1" max="41" width="18.62890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.4">
@@ -85584,17 +85579,17 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="18.05859375" customWidth="1"/>
+    <col min="1" max="3" width="18.05078125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="23.234375" customWidth="1"/>
-    <col min="6" max="6" width="22.8203125" customWidth="1"/>
-    <col min="7" max="7" width="18.05859375" customWidth="1"/>
-    <col min="8" max="8" width="17.52734375" customWidth="1"/>
-    <col min="9" max="9" width="15.703125" customWidth="1"/>
-    <col min="10" max="10" width="15.5859375" customWidth="1"/>
-    <col min="11" max="11" width="14.52734375" customWidth="1"/>
+    <col min="5" max="5" width="23.20703125" customWidth="1"/>
+    <col min="6" max="6" width="22.83984375" customWidth="1"/>
+    <col min="7" max="7" width="18.05078125" customWidth="1"/>
+    <col min="8" max="8" width="17.5234375" customWidth="1"/>
+    <col min="9" max="9" width="15.68359375" customWidth="1"/>
+    <col min="10" max="10" width="15.578125" customWidth="1"/>
+    <col min="11" max="11" width="14.5234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -89336,19 +89331,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CA45BF-3457-4C12-AA1D-94D27E1B0E8C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>